--- a/Тест/Траектории.xlsx
+++ b/Тест/Траектории.xlsx
@@ -5,15 +5,22 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00\TOWER\Тест\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00\TOWER\Warehouse\OKO-02_Test\Тест\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Маяки" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
+    <sheet name="GLP101" sheetId="2" r:id="rId2"/>
+    <sheet name="KIL002" sheetId="3" r:id="rId3"/>
+    <sheet name="GLP111" sheetId="4" r:id="rId4"/>
+    <sheet name="GLP001" sheetId="5" r:id="rId5"/>
+    <sheet name="KIL003" sheetId="6" r:id="rId6"/>
+    <sheet name="GLP007" sheetId="7" r:id="rId7"/>
+    <sheet name="GLP102" sheetId="8" r:id="rId8"/>
+    <sheet name="GLP113" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="83">
   <si>
     <t>Coordination 5</t>
   </si>
@@ -120,9 +127,6 @@
     <t>Delta Killa</t>
   </si>
   <si>
-    <t>CLP101</t>
-  </si>
-  <si>
     <t>Глобус</t>
   </si>
   <si>
@@ -235,13 +239,55 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>GLP101</t>
+  </si>
+  <si>
+    <t>GLP111</t>
+  </si>
+  <si>
+    <t>GLP001</t>
+  </si>
+  <si>
+    <t>Домодедово</t>
+  </si>
+  <si>
+    <t>KIL003</t>
+  </si>
+  <si>
+    <t>расст.</t>
+  </si>
+  <si>
+    <t>время</t>
+  </si>
+  <si>
+    <t>скор. м/с</t>
+  </si>
+  <si>
+    <t>положен.</t>
+  </si>
+  <si>
+    <t>DMD_OUT</t>
+  </si>
+  <si>
+    <t>DMD_IN</t>
+  </si>
+  <si>
+    <t>GLP007</t>
+  </si>
+  <si>
+    <t>GLP102</t>
+  </si>
+  <si>
+    <t>GLP113</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +300,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -280,10 +334,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1080,6 +1141,150 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Маяки!$A$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DMD_OUT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Маяки!$I$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-425</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Маяки!$I$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B747-4E2E-8115-25B0D5D5249B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Маяки!$A$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DMD_IN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Маяки!$I$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-1900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Маяки!$I$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B747-4E2E-8115-25B0D5D5249B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1822,14 +2027,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>352424</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2114,10 +2319,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W43"/>
+  <dimension ref="A1:W48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2132,34 +2337,34 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" t="s">
         <v>36</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" t="s">
         <v>37</v>
       </c>
-      <c r="P1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>36</v>
-      </c>
-      <c r="R1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
         <v>38</v>
-      </c>
-      <c r="V1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -2167,10 +2372,10 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
         <v>34</v>
-      </c>
-      <c r="K2" t="s">
-        <v>35</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -2201,39 +2406,39 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" t="s">
         <v>65</v>
-      </c>
-      <c r="F4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="I6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -2344,7 +2549,7 @@
         <v>54.608888888888892</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10">
         <v>-36825.589999999997</v>
@@ -2383,7 +2588,7 @@
         <v>37.323611111111113</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I11">
         <v>-88157.47</v>
@@ -2423,7 +2628,7 @@
         <v>55.211111111111116</v>
       </c>
       <c r="H14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I14">
         <v>-34245.06</v>
@@ -2451,7 +2656,7 @@
         <v>37.364444444444445</v>
       </c>
       <c r="H15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15">
         <v>-21950.05</v>
@@ -2480,7 +2685,7 @@
         <v>55.162500000000001</v>
       </c>
       <c r="H18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I18">
         <v>-6789.03</v>
@@ -2492,7 +2697,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19">
         <v>37</v>
@@ -2508,7 +2713,7 @@
         <v>37.798888888888889</v>
       </c>
       <c r="H19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I19">
         <v>-27331.599999999999</v>
@@ -2537,7 +2742,7 @@
         <v>55.351111111111109</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I22">
         <v>-23975.48</v>
@@ -2565,7 +2770,7 @@
         <v>37.526944444444446</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23">
         <v>-6415.5320000000002</v>
@@ -2676,7 +2881,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32">
         <v>55</v>
@@ -2741,7 +2946,7 @@
         <v>55.861944444444447</v>
       </c>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I35">
         <v>-62894.92</v>
@@ -2769,7 +2974,7 @@
         <v>36.911111111111111</v>
       </c>
       <c r="H36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I36">
         <v>50737.57</v>
@@ -2793,7 +2998,7 @@
         <v>55.221944444444446</v>
       </c>
       <c r="H38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I38">
         <v>-57610.9</v>
@@ -2805,7 +3010,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C39">
         <v>36</v>
@@ -2821,7 +3026,7 @@
         <v>36.994722222222222</v>
       </c>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I39">
         <v>-20750.3</v>
@@ -2879,6 +3084,69 @@
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44">
+        <v>55</v>
+      </c>
+      <c r="D44">
+        <v>23</v>
+      </c>
+      <c r="E44">
+        <v>18</v>
+      </c>
+      <c r="G44">
+        <f>C44+D44/60+E44/3600</f>
+        <v>55.388333333333335</v>
+      </c>
+      <c r="I44">
+        <v>-425</v>
+      </c>
+      <c r="J44">
+        <f>I45</f>
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45">
+        <v>37</v>
+      </c>
+      <c r="D45">
+        <v>54</v>
+      </c>
+      <c r="E45">
+        <v>42</v>
+      </c>
+      <c r="G45">
+        <f>C45+D45/60+E45/3600</f>
+        <v>37.911666666666662</v>
+      </c>
+      <c r="I45">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>79</v>
+      </c>
+      <c r="I47">
+        <v>-1900</v>
+      </c>
+      <c r="J47">
+        <f>I48</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -2890,47 +3158,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O1" t="s">
-        <v>59</v>
-      </c>
-      <c r="P1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0.41944444444444445</v>
       </c>
@@ -2941,40 +3194,19 @@
         <v>270</v>
       </c>
       <c r="D2">
-        <f>VLOOKUP($B2,Маяки!$A$7:$J$42,9,FALSE)</f>
+        <f>VLOOKUP($B2,Маяки!$A$7:$J$47,9,FALSE)</f>
         <v>-79870.429999999993</v>
       </c>
       <c r="E2">
-        <f>VLOOKUP($B2,Маяки!$A$7:$J$42,10,FALSE)</f>
+        <f>VLOOKUP($B2,Маяки!$A$7:$J$47,10,FALSE)</f>
         <v>-74526.8</v>
       </c>
       <c r="F2">
         <f>C2*Маяки!$R$2</f>
         <v>8229.6</v>
       </c>
-      <c r="K2" s="1">
-        <v>0.42152777777777778</v>
-      </c>
-      <c r="L2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2">
-        <v>270</v>
-      </c>
-      <c r="N2">
-        <f>VLOOKUP($L2,Маяки!$A$7:$J$42,9,FALSE)</f>
-        <v>-36825.589999999997</v>
-      </c>
-      <c r="O2">
-        <f>VLOOKUP($L2,Маяки!$A$7:$J$42,10,FALSE)</f>
-        <v>-88157.47</v>
-      </c>
-      <c r="P2">
-        <f>M2*Маяки!$R$2</f>
-        <v>8229.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.42222222222222222</v>
       </c>
@@ -2985,42 +3217,21 @@
         <v>270</v>
       </c>
       <c r="D3">
-        <f>VLOOKUP($B3,Маяки!$A$7:$J$42,9,FALSE)</f>
+        <f>VLOOKUP($B3,Маяки!$A$7:$J$47,9,FALSE)</f>
         <v>-36825.589999999997</v>
       </c>
       <c r="E3">
-        <f>VLOOKUP($B3,Маяки!$A$7:$J$42,10,FALSE)</f>
+        <f>VLOOKUP($B3,Маяки!$A$7:$J$47,10,FALSE)</f>
         <v>-88157.47</v>
       </c>
       <c r="F3">
         <f>C3*Маяки!$R$2</f>
         <v>8229.6</v>
       </c>
-      <c r="K3" s="1">
-        <v>0.42638888888888887</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3">
-        <v>270</v>
-      </c>
-      <c r="N3">
-        <f>VLOOKUP($L3,Маяки!$A$7:$J$42,9,FALSE)</f>
-        <v>-34245.06</v>
-      </c>
-      <c r="O3">
-        <f>VLOOKUP($L3,Маяки!$A$7:$J$42,10,FALSE)</f>
-        <v>-21950.05</v>
-      </c>
-      <c r="P3">
-        <f>M3*Маяки!$R$2</f>
-        <v>8229.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>0.42777777777777781</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
@@ -3029,37 +3240,1054 @@
         <v>240</v>
       </c>
       <c r="D4">
-        <f>VLOOKUP($B4,Маяки!$A$7:$J$42,9,FALSE)</f>
+        <f>VLOOKUP($B4,Маяки!$A$7:$J$47,9,FALSE)</f>
         <v>-34245.06</v>
       </c>
       <c r="E4">
-        <f>VLOOKUP($B4,Маяки!$A$7:$J$42,10,FALSE)</f>
+        <f>VLOOKUP($B4,Маяки!$A$7:$J$47,10,FALSE)</f>
         <v>-21950.05</v>
       </c>
       <c r="F4">
         <f>C4*Маяки!$R$2</f>
         <v>7315.2</v>
       </c>
-      <c r="K4" s="1">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>270</v>
+      </c>
+      <c r="D2">
+        <f>VLOOKUP($B2,Маяки!$A$7:$J$47,9,FALSE)</f>
+        <v>-36825.589999999997</v>
+      </c>
+      <c r="E2">
+        <f>VLOOKUP($B2,Маяки!$A$7:$J$47,10,FALSE)</f>
+        <v>-88157.47</v>
+      </c>
+      <c r="F2">
+        <f>C2*Маяки!$R$2</f>
+        <v>8229.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0.42638888888888887</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>270</v>
+      </c>
+      <c r="D3">
+        <f>VLOOKUP($B3,Маяки!$A$7:$J$47,9,FALSE)</f>
+        <v>-34245.06</v>
+      </c>
+      <c r="E3">
+        <f>VLOOKUP($B3,Маяки!$A$7:$J$47,10,FALSE)</f>
+        <v>-21950.05</v>
+      </c>
+      <c r="F3">
+        <f>C3*Маяки!$R$2</f>
+        <v>8229.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>0.43055555555555558</v>
       </c>
-      <c r="L4" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="M4">
+      <c r="C4">
         <v>270</v>
       </c>
-      <c r="N4">
-        <f>VLOOKUP($L4,Маяки!$A$7:$J$42,9,FALSE)</f>
+      <c r="D4">
+        <f>VLOOKUP($B4,Маяки!$A$7:$J$47,9,FALSE)</f>
         <v>-35175.39</v>
       </c>
-      <c r="O4">
-        <f>VLOOKUP($L4,Маяки!$A$7:$J$42,10,FALSE)</f>
+      <c r="E4">
+        <f>VLOOKUP($B4,Маяки!$A$7:$J$47,10,FALSE)</f>
         <v>47516.4</v>
       </c>
-      <c r="P4">
-        <f>M4*Маяки!$R$2</f>
+      <c r="F4">
+        <f>C4*Маяки!$R$2</f>
         <v>8229.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>240</v>
+      </c>
+      <c r="D2">
+        <f>VLOOKUP($B2,Маяки!$A$7:$J$47,9,FALSE)</f>
+        <v>-79870.429999999993</v>
+      </c>
+      <c r="E2">
+        <f>VLOOKUP($B2,Маяки!$A$7:$J$47,9,FALSE)</f>
+        <v>-79870.429999999993</v>
+      </c>
+      <c r="F2">
+        <f>C2*Маяки!$R$2</f>
+        <v>7315.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0.42638888888888887</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>240</v>
+      </c>
+      <c r="D3">
+        <f>VLOOKUP($B3,Маяки!$A$7:$J$47,9,FALSE)</f>
+        <v>-34245.06</v>
+      </c>
+      <c r="E3">
+        <f>VLOOKUP($B3,Маяки!$A$7:$J$47,9,FALSE)</f>
+        <v>-34245.06</v>
+      </c>
+      <c r="F3">
+        <f>C3*Маяки!$R$2</f>
+        <v>7315.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>VLOOKUP($B2,Маяки!$A$7:$J$47,9,FALSE)</f>
+        <v>-425</v>
+      </c>
+      <c r="E2">
+        <f>VLOOKUP($B2,Маяки!$A$7:$J$47,10,FALSE)</f>
+        <v>-1200</v>
+      </c>
+      <c r="F2">
+        <f>C2*Маяки!$R$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0.42430555555555555</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>190</v>
+      </c>
+      <c r="D3">
+        <f>VLOOKUP($B3,Маяки!$A$7:$J$47,9,FALSE)</f>
+        <v>-6789.03</v>
+      </c>
+      <c r="E3">
+        <f>VLOOKUP($B3,Маяки!$A$7:$J$47,10,FALSE)</f>
+        <v>-27331.599999999999</v>
+      </c>
+      <c r="F3">
+        <f>C3*Маяки!$R$2</f>
+        <v>5791.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>0.42638888888888887</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="5">
+        <v>240</v>
+      </c>
+      <c r="D4" s="5">
+        <v>-35000</v>
+      </c>
+      <c r="E4" s="5">
+        <v>-44000</v>
+      </c>
+      <c r="F4" s="5">
+        <f>C4*Маяки!$R$2</f>
+        <v>7315.2</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0.42986111111111108</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>240</v>
+      </c>
+      <c r="D5">
+        <f>VLOOKUP($B5,Маяки!$A$7:$J$47,9,FALSE)</f>
+        <v>-79870.429999999993</v>
+      </c>
+      <c r="E5">
+        <f>VLOOKUP($B5,Маяки!$A$7:$J$47,10,FALSE)</f>
+        <v>-74526.8</v>
+      </c>
+      <c r="F5">
+        <f>C5*Маяки!$R$2</f>
+        <v>7315.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8">
+        <f>D5-D3</f>
+        <v>-73081.399999999994</v>
+      </c>
+      <c r="E8">
+        <f>E5-E3</f>
+        <v>-47195.200000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9">
+        <v>480</v>
+      </c>
+      <c r="E9">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10">
+        <f>D8/D9</f>
+        <v>-152.25291666666666</v>
+      </c>
+      <c r="E10">
+        <f>E8/E9</f>
+        <v>-98.323333333333338</v>
+      </c>
+      <c r="F10">
+        <f>SQRT(D10*D10+E10*E10)</f>
+        <v>181.24135430768754</v>
+      </c>
+      <c r="G10">
+        <f>F10*3.6</f>
+        <v>652.46887550767519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>185</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11">
+        <f>D3+B11*D10</f>
+        <v>-34955.81958333333</v>
+      </c>
+      <c r="E11">
+        <f>E3+B11*E10</f>
+        <v>-45521.416666666664</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>240</v>
+      </c>
+      <c r="D2">
+        <f>VLOOKUP($B2,Маяки!$A$7:$J$47,9,FALSE)</f>
+        <v>-36825.589999999997</v>
+      </c>
+      <c r="E2">
+        <f>VLOOKUP($B2,Маяки!$A$7:$J$47,10,FALSE)</f>
+        <v>-88157.47</v>
+      </c>
+      <c r="F2">
+        <f>C2*Маяки!$R$2</f>
+        <v>7315.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>0.42638888888888887</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5">
+        <v>240</v>
+      </c>
+      <c r="D3" s="5">
+        <v>-35105.236666666664</v>
+      </c>
+      <c r="E3" s="5">
+        <v>-44019.19</v>
+      </c>
+      <c r="F3" s="5">
+        <f>C3*Маяки!$R$2</f>
+        <v>7315.2</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0.42777777777777781</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>240</v>
+      </c>
+      <c r="D4">
+        <f>VLOOKUP($B4,Маяки!$A$7:$J$47,9,FALSE)</f>
+        <v>-34245.06</v>
+      </c>
+      <c r="E4">
+        <f>VLOOKUP($B4,Маяки!$A$7:$J$47,10,FALSE)</f>
+        <v>-21950.05</v>
+      </c>
+      <c r="F4">
+        <f>C4*Маяки!$R$2</f>
+        <v>7315.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0.43124999999999997</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>240</v>
+      </c>
+      <c r="D5">
+        <f>VLOOKUP($B5,Маяки!$A$7:$J$47,9,FALSE)</f>
+        <v>-35175.39</v>
+      </c>
+      <c r="E5">
+        <f>VLOOKUP($B5,Маяки!$A$7:$J$47,10,FALSE)</f>
+        <v>47516.4</v>
+      </c>
+      <c r="F5">
+        <f>C5*Маяки!$R$2</f>
+        <v>7315.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <f>A3-A2</f>
+        <v>2.7777777777777679E-3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8">
+        <f>D4-D2</f>
+        <v>2580.5299999999988</v>
+      </c>
+      <c r="E8">
+        <f>E4-E2</f>
+        <v>66207.42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <f>A4-A3</f>
+        <v>1.3888888888889395E-3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="4">
+        <f>MINUTE(A4-A2)*60+SECOND(A4-A2)</f>
+        <v>360</v>
+      </c>
+      <c r="E9" s="4">
+        <f>D9</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10">
+        <f>D8/D9</f>
+        <v>7.168138888888886</v>
+      </c>
+      <c r="E10">
+        <f>E8/E9</f>
+        <v>183.90950000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>240</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11">
+        <f>D2+B11*D10</f>
+        <v>-35105.236666666664</v>
+      </c>
+      <c r="E11">
+        <f>E2+B11*E10</f>
+        <v>-44019.19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>VLOOKUP($B2,Маяки!$A$7:$J$47,9,FALSE)</f>
+        <v>-425</v>
+      </c>
+      <c r="E2">
+        <f>VLOOKUP($B2,Маяки!$A$7:$J$47,10,FALSE)</f>
+        <v>-1200</v>
+      </c>
+      <c r="F2">
+        <f>C2*Маяки!$R$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0.42777777777777781</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>190</v>
+      </c>
+      <c r="D3">
+        <f>VLOOKUP($B3,Маяки!$A$7:$J$47,9,FALSE)</f>
+        <v>-6789.03</v>
+      </c>
+      <c r="E3">
+        <f>VLOOKUP($B3,Маяки!$A$7:$J$47,10,FALSE)</f>
+        <v>-27331.599999999999</v>
+      </c>
+      <c r="F3">
+        <f>C3*Маяки!$R$2</f>
+        <v>5791.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>0.42986111111111108</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="5">
+        <v>240</v>
+      </c>
+      <c r="D4" s="5">
+        <v>-35000</v>
+      </c>
+      <c r="E4" s="5">
+        <v>-44000</v>
+      </c>
+      <c r="F4" s="5">
+        <f>C4*Маяки!$R$2</f>
+        <v>7315.2</v>
+      </c>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>240</v>
+      </c>
+      <c r="D5">
+        <f>VLOOKUP($B5,Маяки!$A$7:$J$47,9,FALSE)</f>
+        <v>-79870.429999999993</v>
+      </c>
+      <c r="E5">
+        <f>VLOOKUP($B5,Маяки!$A$7:$J$47,10,FALSE)</f>
+        <v>-74526.8</v>
+      </c>
+      <c r="F5">
+        <f>C5*Маяки!$R$2</f>
+        <v>7315.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8">
+        <f>D5-D3</f>
+        <v>-73081.399999999994</v>
+      </c>
+      <c r="E8">
+        <f>E5-E3</f>
+        <v>-47195.200000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9">
+        <v>480</v>
+      </c>
+      <c r="E9">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10">
+        <f>D8/D9</f>
+        <v>-152.25291666666666</v>
+      </c>
+      <c r="E10">
+        <f>E8/E9</f>
+        <v>-98.323333333333338</v>
+      </c>
+      <c r="F10">
+        <f>SQRT(D10*D10+E10*E10)</f>
+        <v>181.24135430768754</v>
+      </c>
+      <c r="G10">
+        <f>F10*3.6</f>
+        <v>652.46887550767519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>185</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11">
+        <f>D3+B11*D10</f>
+        <v>-34955.81958333333</v>
+      </c>
+      <c r="E11">
+        <f>E3+B11*E10</f>
+        <v>-45521.416666666664</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0.42986111111111108</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>240</v>
+      </c>
+      <c r="D2">
+        <f>VLOOKUP($B2,Маяки!$A$7:$J$47,9,FALSE)</f>
+        <v>-6789.03</v>
+      </c>
+      <c r="E2">
+        <f>VLOOKUP($B2,Маяки!$A$7:$J$47,10,FALSE)</f>
+        <v>-27331.599999999999</v>
+      </c>
+      <c r="F2">
+        <f>C2*Маяки!$R$2</f>
+        <v>7315.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0.43263888888888885</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>240</v>
+      </c>
+      <c r="D3">
+        <f>VLOOKUP($B3,Маяки!$A$7:$J$47,9,FALSE)</f>
+        <v>-18427.96</v>
+      </c>
+      <c r="E3">
+        <f>VLOOKUP($B3,Маяки!$A$7:$J$47,10,FALSE)</f>
+        <v>17610.3</v>
+      </c>
+      <c r="F3">
+        <f>C3*Маяки!$R$2</f>
+        <v>7315.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6">
+        <f>D3-D2</f>
+        <v>-11638.93</v>
+      </c>
+      <c r="E6">
+        <f>E3-E2</f>
+        <v>44941.899999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7">
+        <v>240</v>
+      </c>
+      <c r="E7">
+        <f>D7</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8">
+        <f>D6/D7</f>
+        <v>-48.495541666666668</v>
+      </c>
+      <c r="E8">
+        <f>E6/E7</f>
+        <v>187.25791666666663</v>
+      </c>
+      <c r="F8">
+        <f>SQRT(D8*D8+E8*E8)</f>
+        <v>193.43563507245418</v>
+      </c>
+      <c r="G8">
+        <f>F8*3.6</f>
+        <v>696.36828626083502</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>185</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9">
+        <f>D2+B9*D8</f>
+        <v>-15760.705208333333</v>
+      </c>
+      <c r="E9">
+        <f>E2+B9*E8</f>
+        <v>7311.1145833333285</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0.42986111111111108</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>270</v>
+      </c>
+      <c r="D2">
+        <f>VLOOKUP($B2,Маяки!$A$7:$J$47,9,FALSE)</f>
+        <v>-36825.589999999997</v>
+      </c>
+      <c r="E2">
+        <f>VLOOKUP($B2,Маяки!$A$7:$J$47,10,FALSE)</f>
+        <v>-88157.47</v>
+      </c>
+      <c r="F2">
+        <f>C2*Маяки!$R$2</f>
+        <v>8229.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>240</v>
+      </c>
+      <c r="D3">
+        <f>VLOOKUP($B3,Маяки!$A$7:$J$47,9,FALSE)</f>
+        <v>-34245.06</v>
+      </c>
+      <c r="E3">
+        <f>VLOOKUP($B3,Маяки!$A$7:$J$47,10,FALSE)</f>
+        <v>-21950.05</v>
+      </c>
+      <c r="F3">
+        <f>C3*Маяки!$R$2</f>
+        <v>7315.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0.43541666666666662</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>150</v>
+      </c>
+      <c r="D4">
+        <f>VLOOKUP($B4,Маяки!$A$7:$J$47,9,FALSE)</f>
+        <v>-23975.48</v>
+      </c>
+      <c r="E4">
+        <f>VLOOKUP($B4,Маяки!$A$7:$J$47,10,FALSE)</f>
+        <v>-6415.5320000000002</v>
+      </c>
+      <c r="F4">
+        <f>C4*Маяки!$R$2</f>
+        <v>4572</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7">
+        <f>D4-D2</f>
+        <v>12850.109999999997</v>
+      </c>
+      <c r="E7">
+        <f>E4-E2</f>
+        <v>81741.937999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8">
+        <f>MINUTE(A4-A2)*60+SECOND(A4-A2)</f>
+        <v>480</v>
+      </c>
+      <c r="E8">
+        <f>D8</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9">
+        <f>D7/D8</f>
+        <v>26.771062499999992</v>
+      </c>
+      <c r="E9">
+        <f>E7/E8</f>
+        <v>170.29570416666667</v>
+      </c>
+      <c r="F9">
+        <f>SQRT(D9*D9+E9*E9)</f>
+        <v>172.38711275788501</v>
+      </c>
+      <c r="G9">
+        <f>F9*3.6</f>
+        <v>620.59360592838607</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>390</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10">
+        <f>D2+B10*D9</f>
+        <v>-26384.875625000001</v>
+      </c>
+      <c r="E10">
+        <f>E2+B10*E9</f>
+        <v>-21742.145375000007</v>
       </c>
     </row>
   </sheetData>
